--- a/biology/Zoologie/Charinidae/Charinidae.xlsx
+++ b/biology/Zoologie/Charinidae/Charinidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Charinidae sont une famille d'amblypyges, la seule de l'infra-ordre des Charinina.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Amérique, en Afrique, dans le sud de l'Asie, en Océanie et en Europe du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Amérique, en Afrique, dans le sud de l'Asie, en Océanie et en Europe du Sud.
 </t>
         </is>
       </c>
@@ -542,15 +556,17 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Whip spiders of the World (version 1.0)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Whip spiders of the World (version 1.0) :
 Charinus Simon, 1892
 Sarax Simon, 1892
 et décrit depuis :
 Weygoldtia Miranda, Giupponi, Prendini &amp; Scharff, 2018
-Le genre Stygophrynus a été placé en synonymie avec le genre Catageus dans les Charontidae par Miranda, Giupponi, Prendini et Scharff en 2018[2].
-La famille est révisée par Miranda, Giupponi, Prendini et Scharff en 2021[3].
+Le genre Stygophrynus a été placé en synonymie avec le genre Catageus dans les Charontidae par Miranda, Giupponi, Prendini et Scharff en 2018.
+La famille est révisée par Miranda, Giupponi, Prendini et Scharff en 2021.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Quintero, 1986 : « Revision de la clasificacion de amblypygidos pulvinados: creacion de subordenes, una nueva familia y un nuevo genero con tres nuevas especies (Arachnida: Amblypygi). » Proceedings of the Ninth International Congress of Arachnology, Panama 1983, Smithsonian Institution Press, p. 1-333.
 Weygoldt, 1996 : « Evolutionary morphology of whip spiders: towards a phylogenetic system (Chelicerata: Arachnida: Amblypygi). » Journal of Zoological Systematics and Evolution Research, vol. 34, p. 185–202.</t>
